--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_11_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_11_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>799214.806165404</v>
+        <v>879417.5293174383</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9509111.451434787</v>
+        <v>9509111.451434789</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +661,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>23.41994504831868</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>104.6528317025647</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -750,7 +752,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>135.3343964518633</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
         <v>92.83156789269626</v>
@@ -786,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>134.3646350838588</v>
+        <v>134.3646350838592</v>
       </c>
       <c r="T3" t="n">
         <v>192.0665623188214</v>
@@ -814,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>95.65910954404377</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>144.8586974472227</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>193.1994278308463</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>212.3719206342535</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>64.57009008111716</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>113.3502365706355</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>206.6163368540824</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>79.77884995492039</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -1190,13 +1192,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1.78116022224987</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.781160222249659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,25 +1372,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>141.1762660121929</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>126.5388824951713</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1464,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>10.74344707148583</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.166281869766606</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1610,22 +1612,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>145.2481701217143</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,22 +1660,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>274.7944255145757</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>55.93898446134924</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>196.9899243971805</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1844,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>75.45713216103655</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1862,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1904,13 +1906,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>120.357766521947</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2005,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>126.566098122433</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>114.2656173771016</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2090,16 +2092,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>350.4976661686014</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>230.2267521569527</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2178,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>218.1043346164863</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>126.0955237083909</v>
       </c>
     </row>
     <row r="23">
@@ -2318,13 +2320,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>43.95604371558973</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2366,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>168.1158122680976</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.54245596842112</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>53.82704427691639</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2555,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>164.0595157960429</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2570,10 +2572,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>168.1158122680962</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2612,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>111.9187566128688</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2795,22 +2797,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>28.93420885558032</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>229.7965692041375</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2959,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>72.33640507852758</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3007,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>53.4522744295482</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3038,13 +3040,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>229.7965692041371</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>199.7325946875369</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3187,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>17.15794421524323</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3205,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>77.31354443380452</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3272,10 +3274,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>126.7498226612772</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3284,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>188.2196394312107</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3424,19 +3426,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>173.626889274476</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>68.85005436466994</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3515,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>229.796569204137</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>23.79925355567548</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3679,7 +3681,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>27.00971856836598</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3711,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3721,10 +3723,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>114.2656173771021</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3794,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>229.796569204137</v>
       </c>
       <c r="V41" t="n">
-        <v>168.1158122680976</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3910,10 +3912,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>104.5702261485542</v>
       </c>
       <c r="H43" t="n">
-        <v>75.32192060851568</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3961,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3983,13 +3985,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>105.0023863360931</v>
       </c>
       <c r="G44" t="n">
-        <v>126.7498226612781</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4141,7 +4143,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4152,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>83.96546591245719</v>
+        <v>74.89477942386841</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>778.4750021151654</v>
+        <v>141.2769458819316</v>
       </c>
       <c r="C2" t="n">
-        <v>409.5124851747536</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="D2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="E2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="F2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
         <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.313418796629</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
         <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1538.540600440367</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1165.074842179287</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y2" t="n">
-        <v>1165.074842179287</v>
+        <v>527.8767859460534</v>
       </c>
     </row>
     <row r="3">
@@ -4383,43 +4385,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542602</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756897</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>1092.885047004312</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M3" t="n">
         <v>1456.147065963532</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560477</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O3" t="n">
         <v>2175.502629736639</v>
@@ -4440,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4449,7 +4451,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>570.4526592426267</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C4" t="n">
-        <v>570.4526592426267</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D4" t="n">
-        <v>570.4526592426267</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E4" t="n">
-        <v>570.4526592426267</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
         <v>473.8272960668249</v>
@@ -4483,10 +4485,10 @@
         <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
@@ -4510,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>825.1371474485136</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>570.4526592426267</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>570.4526592426267</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X4" t="n">
-        <v>570.4526592426267</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="Y4" t="n">
-        <v>570.4526592426267</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1412.134398099142</v>
+        <v>844.848651279277</v>
       </c>
       <c r="C5" t="n">
-        <v>1043.17188115873</v>
+        <v>475.8861343388652</v>
       </c>
       <c r="D5" t="n">
-        <v>1043.17188115873</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="E5" t="n">
-        <v>657.3836285604857</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="F5" t="n">
-        <v>246.3977237708781</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4601,16 +4603,16 @@
         <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>2347.822236850404</v>
       </c>
       <c r="W5" t="n">
-        <v>2562.339328400155</v>
+        <v>1995.05358158029</v>
       </c>
       <c r="X5" t="n">
-        <v>2188.873570139075</v>
+        <v>1621.58782331921</v>
       </c>
       <c r="Y5" t="n">
-        <v>1798.734238163263</v>
+        <v>1231.448491343399</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310614</v>
+        <v>590.2049751143501</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625332</v>
+        <v>884.9085321458217</v>
       </c>
       <c r="M6" t="n">
-        <v>1227.201367341572</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N6" t="n">
-        <v>1614.486495938517</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,16 +4679,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1006.01552520271</v>
+        <v>455.9574707874393</v>
       </c>
       <c r="C7" t="n">
-        <v>837.0793422748035</v>
+        <v>455.9574707874393</v>
       </c>
       <c r="D7" t="n">
-        <v>686.9627028624677</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="E7" t="n">
-        <v>539.0496092800746</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G7" t="n">
         <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W7" t="n">
-        <v>1636.446120074497</v>
+        <v>455.9574707874393</v>
       </c>
       <c r="X7" t="n">
-        <v>1408.45656917648</v>
+        <v>455.9574707874393</v>
       </c>
       <c r="Y7" t="n">
-        <v>1187.66399003295</v>
+        <v>455.9574707874393</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>987.1783726748445</v>
+        <v>1688.365042002428</v>
       </c>
       <c r="C8" t="n">
-        <v>618.2158557344328</v>
+        <v>1688.365042002428</v>
       </c>
       <c r="D8" t="n">
-        <v>259.9501571276823</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E8" t="n">
-        <v>51.24678656800312</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="F8" t="n">
-        <v>51.24678656800312</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816083</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4831,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2481.754631475994</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2273.008990081819</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.01262627016</v>
+        <v>2019.427929345999</v>
       </c>
       <c r="V8" t="n">
-        <v>2100.01262627016</v>
+        <v>1688.365042002428</v>
       </c>
       <c r="W8" t="n">
-        <v>1747.243971000046</v>
+        <v>1688.365042002428</v>
       </c>
       <c r="X8" t="n">
-        <v>1373.778212738966</v>
+        <v>1688.365042002428</v>
       </c>
       <c r="Y8" t="n">
-        <v>1373.778212738966</v>
+        <v>1688.365042002428</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812058006</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310614</v>
+        <v>614.5430248380233</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625332</v>
+        <v>909.2465818694951</v>
       </c>
       <c r="M9" t="n">
-        <v>1227.201367341572</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N9" t="n">
-        <v>1614.486495938517</v>
+        <v>1659.793729425661</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.04689843412</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.24678656800312</v>
+        <v>53.04593830764946</v>
       </c>
       <c r="C10" t="n">
-        <v>51.24678656800312</v>
+        <v>53.04593830764946</v>
       </c>
       <c r="D10" t="n">
-        <v>51.24678656800312</v>
+        <v>53.04593830764946</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800312</v>
+        <v>53.04593830764946</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800312</v>
+        <v>53.04593830764946</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800312</v>
+        <v>53.04593830764946</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800312</v>
+        <v>53.04593830764946</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020476</v>
@@ -4969,7 +4971,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4981,7 +4983,7 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
         <v>1533.86271359008</v>
@@ -4993,19 +4995,19 @@
         <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>825.137147448514</v>
+        <v>825.1371474485143</v>
       </c>
       <c r="V10" t="n">
-        <v>570.4526592426272</v>
+        <v>570.4526592426274</v>
       </c>
       <c r="W10" t="n">
-        <v>281.0354892056666</v>
+        <v>281.0354892056668</v>
       </c>
       <c r="X10" t="n">
-        <v>53.04593830764924</v>
+        <v>53.04593830764946</v>
       </c>
       <c r="Y10" t="n">
-        <v>51.24678656800312</v>
+        <v>53.04593830764946</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2047.583838282732</v>
+        <v>921.7704558796247</v>
       </c>
       <c r="C11" t="n">
-        <v>1678.62132134232</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="D11" t="n">
-        <v>1320.35562273557</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="E11" t="n">
-        <v>934.5673701373257</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="F11" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W11" t="n">
-        <v>3197.788768583745</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X11" t="n">
-        <v>2824.323010322666</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y11" t="n">
-        <v>2434.183678346854</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="12">
@@ -5109,22 +5111,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5136,10 +5138,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5173,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>359.619250712236</v>
+        <v>952.3490077683463</v>
       </c>
       <c r="C13" t="n">
-        <v>359.619250712236</v>
+        <v>783.4128248404394</v>
       </c>
       <c r="D13" t="n">
-        <v>359.619250712236</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E13" t="n">
-        <v>359.619250712236</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F13" t="n">
-        <v>212.7293032143256</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G13" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5218,31 +5220,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="U13" t="n">
-        <v>1134.908724368016</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="V13" t="n">
-        <v>880.2242361621296</v>
+        <v>1582.779602640133</v>
       </c>
       <c r="W13" t="n">
-        <v>590.8070661251691</v>
+        <v>1582.779602640133</v>
       </c>
       <c r="X13" t="n">
-        <v>362.8175152271517</v>
+        <v>1354.790051742116</v>
       </c>
       <c r="Y13" t="n">
-        <v>359.619250712236</v>
+        <v>1133.997472598586</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>921.7704558796261</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C14" t="n">
-        <v>552.8079389392144</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D14" t="n">
-        <v>406.0926155839475</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E14" t="n">
-        <v>406.0926155839475</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F14" t="n">
-        <v>406.0926155839475</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G14" t="n">
         <v>406.0926155839475</v>
@@ -5273,55 +5275,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450754</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W14" t="n">
-        <v>2071.975386180639</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="X14" t="n">
-        <v>1698.50962791956</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="Y14" t="n">
-        <v>1308.370295943748</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="15">
@@ -5331,46 +5333,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H15" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
         <v>2407.411984886741</v>
@@ -5388,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>163.8377936138381</v>
+        <v>752.7622949738575</v>
       </c>
       <c r="C16" t="n">
-        <v>163.8377936138381</v>
+        <v>583.8261120459506</v>
       </c>
       <c r="D16" t="n">
-        <v>163.8377936138381</v>
+        <v>583.8261120459506</v>
       </c>
       <c r="E16" t="n">
-        <v>163.8377936138381</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F16" t="n">
-        <v>163.8377936138381</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G16" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L16" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N16" t="n">
         <v>1317.747152581905</v>
@@ -5455,31 +5457,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U16" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V16" t="n">
-        <v>880.2242361621296</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="W16" t="n">
-        <v>590.8070661251691</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X16" t="n">
-        <v>362.8175152271517</v>
+        <v>1155.203338947627</v>
       </c>
       <c r="Y16" t="n">
-        <v>163.8377936138381</v>
+        <v>934.4107598040972</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1308.370295943747</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C17" t="n">
-        <v>1308.370295943747</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D17" t="n">
-        <v>1308.370295943747</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E17" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.975386180638</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="X17" t="n">
-        <v>1698.509627919559</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="Y17" t="n">
-        <v>1308.370295943747</v>
+        <v>2303.170539913434</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>936.5735814686076</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>846.0716871064751</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>827.064395508013</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M18" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N18" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R18" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5647,43 +5649,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1091.613680441807</v>
+        <v>403.1511359853714</v>
       </c>
       <c r="C19" t="n">
-        <v>922.6774975139006</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D19" t="n">
-        <v>772.5608581015648</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E19" t="n">
-        <v>624.6477645191717</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F19" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G19" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O19" t="n">
         <v>1617.076751502319</v>
@@ -5692,31 +5694,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T19" t="n">
-        <v>1837.46409084602</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U19" t="n">
-        <v>1837.46409084602</v>
+        <v>1577.683389100006</v>
       </c>
       <c r="V19" t="n">
-        <v>1837.46409084602</v>
+        <v>1322.998900894119</v>
       </c>
       <c r="W19" t="n">
-        <v>1722.044275313594</v>
+        <v>1033.581730857159</v>
       </c>
       <c r="X19" t="n">
-        <v>1494.054724415577</v>
+        <v>805.5921799591413</v>
       </c>
       <c r="Y19" t="n">
-        <v>1273.262145272047</v>
+        <v>584.7996008156111</v>
       </c>
     </row>
     <row r="20">
@@ -5726,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1175.30093260579</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C20" t="n">
-        <v>806.3384156653785</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D20" t="n">
-        <v>806.3384156653785</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E20" t="n">
-        <v>420.5501630671343</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F20" t="n">
-        <v>420.5501630671343</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
         <v>3018.302393296687</v>
@@ -5777,25 +5779,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U20" t="n">
-        <v>3009.337405520489</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V20" t="n">
-        <v>2678.274518176918</v>
+        <v>2839.523069976995</v>
       </c>
       <c r="W20" t="n">
-        <v>2325.505862906803</v>
+        <v>2839.523069976995</v>
       </c>
       <c r="X20" t="n">
-        <v>1952.040104645724</v>
+        <v>2466.057311715915</v>
       </c>
       <c r="Y20" t="n">
-        <v>1561.900772669912</v>
+        <v>2075.917979740103</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C21" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D21" t="n">
-        <v>1378.708694614561</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E21" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F21" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
-        <v>936.5735814686084</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>846.0716871064759</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I21" t="n">
-        <v>827.0643955080138</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>920.7416649986312</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K21" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>1525.704024291644</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>532.4548862703364</v>
+        <v>1633.759572880769</v>
       </c>
       <c r="C22" t="n">
-        <v>363.5187033424295</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="D22" t="n">
-        <v>213.4020639300938</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="E22" t="n">
-        <v>213.4020639300938</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O22" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088493</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S22" t="n">
-        <v>1927.294548088493</v>
+        <v>3044.089480193526</v>
       </c>
       <c r="T22" t="n">
-        <v>1927.294548088493</v>
+        <v>2822.322864763052</v>
       </c>
       <c r="U22" t="n">
-        <v>1706.987139384971</v>
+        <v>2533.219997888695</v>
       </c>
       <c r="V22" t="n">
-        <v>1452.302651179084</v>
+        <v>2278.535509682808</v>
       </c>
       <c r="W22" t="n">
-        <v>1162.885481142124</v>
+        <v>1989.118339645848</v>
       </c>
       <c r="X22" t="n">
-        <v>934.8959302441062</v>
+        <v>1761.12878874783</v>
       </c>
       <c r="Y22" t="n">
-        <v>714.1033511005761</v>
+        <v>1633.759572880769</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1295.236214140706</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C23" t="n">
-        <v>1295.236214140706</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D23" t="n">
-        <v>936.9705155339559</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E23" t="n">
         <v>892.5704713767946</v>
@@ -6014,25 +6016,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U23" t="n">
-        <v>2755.806928794325</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="V23" t="n">
-        <v>2424.744041450754</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="W23" t="n">
-        <v>2071.97538618064</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X23" t="n">
-        <v>2071.97538618064</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y23" t="n">
-        <v>1681.836054204828</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="24">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1091.613680441807</v>
+        <v>270.9995076393842</v>
       </c>
       <c r="C25" t="n">
-        <v>922.6774975139006</v>
+        <v>270.9995076393842</v>
       </c>
       <c r="D25" t="n">
-        <v>772.5608581015648</v>
+        <v>120.8828682270485</v>
       </c>
       <c r="E25" t="n">
-        <v>624.6477645191717</v>
+        <v>120.8828682270485</v>
       </c>
       <c r="F25" t="n">
-        <v>477.7578170212613</v>
+        <v>120.8828682270485</v>
       </c>
       <c r="G25" t="n">
-        <v>310.0549803959803</v>
+        <v>120.8828682270485</v>
       </c>
       <c r="H25" t="n">
-        <v>163.8377936138381</v>
+        <v>120.8828682270485</v>
       </c>
       <c r="I25" t="n">
         <v>66.51211643218343</v>
@@ -6172,25 +6174,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T25" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U25" t="n">
-        <v>1705.527932658019</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V25" t="n">
-        <v>1705.527932658019</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W25" t="n">
-        <v>1416.110762621058</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X25" t="n">
-        <v>1188.121211723041</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y25" t="n">
-        <v>1188.121211723041</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1844.338003964586</v>
+        <v>2175.400891308157</v>
       </c>
       <c r="C26" t="n">
-        <v>1678.62132134232</v>
+        <v>1806.438374367745</v>
       </c>
       <c r="D26" t="n">
-        <v>1320.35562273557</v>
+        <v>1448.172675760994</v>
       </c>
       <c r="E26" t="n">
-        <v>934.5673701373257</v>
+        <v>1062.38442316275</v>
       </c>
       <c r="F26" t="n">
-        <v>523.5814653477182</v>
+        <v>651.3985183731427</v>
       </c>
       <c r="G26" t="n">
-        <v>108.5090151927147</v>
+        <v>236.3260682181391</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I26" t="n">
         <v>66.5121164321834</v>
@@ -6260,16 +6262,16 @@
         <v>3325.60582160917</v>
       </c>
       <c r="V26" t="n">
-        <v>2994.542934265599</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W26" t="n">
-        <v>2994.542934265599</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="X26" t="n">
-        <v>2621.07717600452</v>
+        <v>2952.14006334809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2230.937844028708</v>
+        <v>2562.000731372279</v>
       </c>
     </row>
     <row r="27">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1876.069090541939</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C28" t="n">
-        <v>1876.069090541939</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D28" t="n">
-        <v>1876.069090541939</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E28" t="n">
-        <v>1876.069090541939</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F28" t="n">
-        <v>1876.069090541939</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G28" t="n">
-        <v>1708.366253916658</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H28" t="n">
-        <v>1562.149067134515</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I28" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J28" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K28" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L28" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M28" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N28" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O28" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P28" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q28" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>3044.089480193524</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T28" t="n">
-        <v>2822.32286476305</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U28" t="n">
-        <v>2533.219997888694</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V28" t="n">
-        <v>2278.535509682807</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W28" t="n">
-        <v>1989.118339645846</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X28" t="n">
-        <v>1876.069090541939</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y28" t="n">
-        <v>1876.069090541939</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>921.7704558796252</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C29" t="n">
-        <v>552.8079389392135</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D29" t="n">
-        <v>523.5814653477182</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E29" t="n">
-        <v>523.5814653477182</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F29" t="n">
-        <v>523.5814653477182</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
         <v>589.2106210810553</v>
@@ -6470,7 +6472,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
         <v>2120.555556060171</v>
@@ -6485,28 +6487,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U29" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V29" t="n">
-        <v>2424.744041450753</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="W29" t="n">
-        <v>2071.975386180638</v>
+        <v>2740.71941966821</v>
       </c>
       <c r="X29" t="n">
-        <v>1698.509627919559</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="Y29" t="n">
-        <v>1308.370295943747</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I30" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M30" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O30" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q30" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R30" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S30" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T30" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V30" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W30" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X30" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>752.7622949738579</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C31" t="n">
-        <v>583.826112045951</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D31" t="n">
-        <v>433.7094726336153</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E31" t="n">
-        <v>285.7963790512222</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F31" t="n">
-        <v>212.7293032143256</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G31" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H31" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
@@ -6643,28 +6645,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R31" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S31" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T31" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U31" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V31" t="n">
-        <v>1672.610059882606</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="W31" t="n">
-        <v>1383.192889845645</v>
+        <v>1548.04692080906</v>
       </c>
       <c r="X31" t="n">
-        <v>1155.203338947628</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y31" t="n">
-        <v>934.4107598040977</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="32">
@@ -6674,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1179.52858457759</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C32" t="n">
-        <v>810.5660676371781</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D32" t="n">
-        <v>452.3003690304276</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="E32" t="n">
-        <v>66.5121164321834</v>
+        <v>709.6157678926365</v>
       </c>
       <c r="F32" t="n">
-        <v>66.5121164321834</v>
+        <v>298.629863103029</v>
       </c>
       <c r="G32" t="n">
-        <v>66.5121164321834</v>
+        <v>298.629863103029</v>
       </c>
       <c r="H32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
         <v>2120.555556060171</v>
@@ -6722,28 +6724,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U32" t="n">
-        <v>3013.565057492288</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V32" t="n">
-        <v>2682.502170148718</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W32" t="n">
-        <v>2329.733514878603</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X32" t="n">
-        <v>1956.267756617523</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y32" t="n">
-        <v>1566.128424641711</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686075</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>846.071687106475</v>
       </c>
       <c r="I33" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080129</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986303</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M33" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>181.169050396912</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C34" t="n">
-        <v>163.837793613838</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D34" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E34" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F34" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G34" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H34" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
         <v>111.634748879119</v>
@@ -6880,28 +6882,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T34" t="n">
-        <v>1424.011591242373</v>
+        <v>1849.200058761417</v>
       </c>
       <c r="U34" t="n">
-        <v>1134.908724368016</v>
+        <v>1560.097191887061</v>
       </c>
       <c r="V34" t="n">
-        <v>880.2242361621296</v>
+        <v>1305.412703681174</v>
       </c>
       <c r="W34" t="n">
-        <v>590.8070661251691</v>
+        <v>1015.995533644213</v>
       </c>
       <c r="X34" t="n">
-        <v>362.8175152271517</v>
+        <v>788.005982746196</v>
       </c>
       <c r="Y34" t="n">
-        <v>362.8175152271517</v>
+        <v>567.2134036026658</v>
       </c>
     </row>
     <row r="35">
@@ -6911,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>921.7704558796256</v>
+        <v>1632.511388127729</v>
       </c>
       <c r="C35" t="n">
-        <v>552.807938939214</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D35" t="n">
-        <v>194.5422403324635</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E35" t="n">
-        <v>66.51211643218342</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F35" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060171</v>
@@ -6959,28 +6961,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U35" t="n">
-        <v>2755.806928794324</v>
+        <v>3135.484973698856</v>
       </c>
       <c r="V35" t="n">
-        <v>2424.744041450753</v>
+        <v>3135.484973698856</v>
       </c>
       <c r="W35" t="n">
-        <v>2071.975386180639</v>
+        <v>2782.716318428742</v>
       </c>
       <c r="X35" t="n">
-        <v>1698.509627919559</v>
+        <v>2409.250560167662</v>
       </c>
       <c r="Y35" t="n">
-        <v>1308.370295943747</v>
+        <v>2019.11122819185</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>936.5735814686075</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>846.071687106475</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>827.0643955080129</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S36" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T36" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W36" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>848.0708164780106</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C37" t="n">
-        <v>679.1346335501037</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D37" t="n">
-        <v>529.0179941377679</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E37" t="n">
-        <v>381.1049005553748</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F37" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7117,28 +7119,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1837.464090846021</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T37" t="n">
-        <v>1837.464090846021</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U37" t="n">
-        <v>1837.464090846021</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V37" t="n">
-        <v>1767.918581386758</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W37" t="n">
-        <v>1478.501411349798</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X37" t="n">
-        <v>1250.51186045178</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y37" t="n">
-        <v>1029.71928130825</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2345.167438673965</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C38" t="n">
-        <v>1976.204921733553</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D38" t="n">
-        <v>1617.939223126803</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E38" t="n">
-        <v>1232.150970528558</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F38" t="n">
-        <v>821.1650657389509</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G38" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912089</v>
@@ -7181,7 +7183,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
@@ -7196,28 +7198,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794325</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="V38" t="n">
-        <v>2755.806928794325</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="W38" t="n">
-        <v>2755.806928794325</v>
+        <v>2740.71941966821</v>
       </c>
       <c r="X38" t="n">
-        <v>2755.806928794325</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="Y38" t="n">
-        <v>2731.767278738087</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="39">
@@ -7242,22 +7244,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1091.613680441807</v>
+        <v>2419.88182078928</v>
       </c>
       <c r="C40" t="n">
-        <v>922.6774975139006</v>
+        <v>2250.945637861374</v>
       </c>
       <c r="D40" t="n">
-        <v>772.5608581015648</v>
+        <v>2100.828998449038</v>
       </c>
       <c r="E40" t="n">
-        <v>624.6477645191717</v>
+        <v>1952.915904866645</v>
       </c>
       <c r="F40" t="n">
-        <v>477.7578170212613</v>
+        <v>1806.025957368734</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0549803959803</v>
+        <v>1638.323120743454</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>1492.105933961311</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J40" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L40" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N40" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O40" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P40" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.464090846021</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S40" t="n">
-        <v>1837.464090846021</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="T40" t="n">
-        <v>1837.464090846021</v>
+        <v>2822.32286476305</v>
       </c>
       <c r="U40" t="n">
-        <v>1837.464090846021</v>
+        <v>2822.32286476305</v>
       </c>
       <c r="V40" t="n">
-        <v>1837.464090846021</v>
+        <v>2822.32286476305</v>
       </c>
       <c r="W40" t="n">
-        <v>1722.044275313594</v>
+        <v>2822.32286476305</v>
       </c>
       <c r="X40" t="n">
-        <v>1494.054724415577</v>
+        <v>2822.32286476305</v>
       </c>
       <c r="Y40" t="n">
-        <v>1273.262145272047</v>
+        <v>2601.53028561952</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2005.586939522201</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C41" t="n">
-        <v>1636.624422581789</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D41" t="n">
-        <v>1278.358723975039</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E41" t="n">
-        <v>892.5704713767946</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F41" t="n">
-        <v>481.5845665871869</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.605821609171</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="V41" t="n">
-        <v>3155.791869823214</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="W41" t="n">
-        <v>3155.791869823214</v>
+        <v>2740.71941966821</v>
       </c>
       <c r="X41" t="n">
-        <v>2782.326111562134</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="Y41" t="n">
-        <v>2392.186779586323</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="42">
@@ -7479,16 +7481,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>924.1535645674204</v>
+        <v>785.9944709118752</v>
       </c>
       <c r="C43" t="n">
-        <v>755.2173816395135</v>
+        <v>617.0582879839683</v>
       </c>
       <c r="D43" t="n">
-        <v>605.1007422271778</v>
+        <v>466.9416485716325</v>
       </c>
       <c r="E43" t="n">
-        <v>457.1876486447846</v>
+        <v>319.0285549892394</v>
       </c>
       <c r="F43" t="n">
-        <v>310.2977011468743</v>
+        <v>172.1386074913291</v>
       </c>
       <c r="G43" t="n">
-        <v>142.5948645215932</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7591,28 +7593,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T43" t="n">
-        <v>1615.697475415547</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U43" t="n">
-        <v>1326.59460854119</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V43" t="n">
-        <v>1326.59460854119</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="W43" t="n">
-        <v>1326.59460854119</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="X43" t="n">
-        <v>1326.59460854119</v>
+        <v>1188.435514885645</v>
       </c>
       <c r="Y43" t="n">
-        <v>1105.80202939766</v>
+        <v>967.6429357421149</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>921.7704558796265</v>
+        <v>1285.591601078694</v>
       </c>
       <c r="C44" t="n">
-        <v>552.8079389392149</v>
+        <v>916.6290841382822</v>
       </c>
       <c r="D44" t="n">
-        <v>194.5422403324644</v>
+        <v>558.3633855315318</v>
       </c>
       <c r="E44" t="n">
-        <v>194.5422403324644</v>
+        <v>172.5751329332875</v>
       </c>
       <c r="F44" t="n">
-        <v>194.5422403324644</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U44" t="n">
-        <v>2755.806928794325</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V44" t="n">
-        <v>2424.744041450754</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="W44" t="n">
-        <v>2071.97538618064</v>
+        <v>2435.796531379707</v>
       </c>
       <c r="X44" t="n">
-        <v>1698.50962791956</v>
+        <v>2062.330773118627</v>
       </c>
       <c r="Y44" t="n">
-        <v>1308.370295943748</v>
+        <v>1672.191441142816</v>
       </c>
     </row>
     <row r="45">
@@ -7701,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7758,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7767,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>785.9944709118752</v>
+        <v>726.2447449267036</v>
       </c>
       <c r="C46" t="n">
-        <v>617.0582879839683</v>
+        <v>557.3085619987967</v>
       </c>
       <c r="D46" t="n">
-        <v>466.9416485716325</v>
+        <v>407.1919225864609</v>
       </c>
       <c r="E46" t="n">
-        <v>319.0285549892394</v>
+        <v>407.1919225864609</v>
       </c>
       <c r="F46" t="n">
-        <v>319.0285549892394</v>
+        <v>407.1919225864609</v>
       </c>
       <c r="G46" t="n">
-        <v>151.3257183639584</v>
+        <v>239.4890859611799</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7828,28 +7830,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S46" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T46" t="n">
-        <v>1705.527932658019</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U46" t="n">
-        <v>1416.425065783662</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V46" t="n">
-        <v>1416.425065783662</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="W46" t="n">
-        <v>1416.425065783662</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="X46" t="n">
-        <v>1188.435514885645</v>
+        <v>1128.685788900473</v>
       </c>
       <c r="Y46" t="n">
-        <v>967.6429357421149</v>
+        <v>907.8932097569433</v>
       </c>
     </row>
   </sheetData>
@@ -8058,13 +8060,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>240.4465442417437</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>162.0073097921339</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8292,31 +8294,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>168.7434581780647</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179982</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>255.8421700460943</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,31 +8531,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.3273467878354</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>255.8421700460941</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8790,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -22547,10 +22549,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>341.8529467226888</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22565,7 +22567,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22607,13 +22609,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>244.5881370148483</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,19 +22704,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>49.76193847888747</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22750,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>80.85095794181444</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22787,22 +22789,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>218.3482749421077</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22841,10 +22843,10 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>115.3803378358814</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22939,22 +22941,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>80.85095794181409</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -22987,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>173.1727617659555</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23018,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>175.3140332181794</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>43.67336544387396</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -23078,13 +23080,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23197,7 +23199,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>103.0154349816507</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23245,7 +23247,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>216.8034931298451</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23258,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>224.0966257588147</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>222.7020862222417</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>137.8720259467265</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>215.4183714823282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23498,16 +23500,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>209.4348714989687</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23549,19 +23551,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>111.4435131414779</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>90.49497818521994</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>21.5947289549143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23732,13 +23734,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>306.4732379112252</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23750,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23792,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>228.883202195466</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23893,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>159.6457400831799</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>172.2573809594894</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23978,16 +23980,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>60.42405948485208</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>97.52550631318223</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24124,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>68.10750358912654</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>92.48912964370393</v>
       </c>
     </row>
     <row r="23">
@@ -24206,13 +24208,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>337.9743263566721</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24254,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>82.87935969080434</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>84.28952421351617</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>42.5253761329217</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,16 +24414,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24443,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>201.2133759749646</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24458,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>126.4919521192243</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24500,7 +24502,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>113.7908987761684</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24683,22 +24685,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>325.7488327651026</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>97.95568926599745</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24847,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>73.08464294440367</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -24895,13 +24897,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>172.257380959489</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24926,13 +24928,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>64.81119518318334</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -24965,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>51.26257727136507</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25075,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>150.0888768833846</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25093,7 +25095,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>142.2354048423647</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25160,10 +25162,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>255.1805474109846</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
@@ -25172,7 +25174,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>62.7755325276913</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25312,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696594</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>183.2875889591581</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25403,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>21.19860275476498</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>362.4386851003781</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>69.34270184147211</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -25609,10 +25611,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>172.2573809594889</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25640,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
@@ -25682,13 +25684,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>21.19860275476498</v>
       </c>
       <c r="V41" t="n">
-        <v>159.6364462020373</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25798,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>61.45558211047404</v>
       </c>
       <c r="H43" t="n">
-        <v>69.4330943058051</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -25849,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25871,13 +25873,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>301.8736594056184</v>
       </c>
       <c r="G44" t="n">
-        <v>284.1719029921753</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
@@ -25913,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26029,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>60.78954900186359</v>
+        <v>69.86023549045237</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>762875.9985773695</v>
+        <v>762875.9985773697</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>762875.9985773695</v>
+        <v>762875.9985773696</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>762875.9985773697</v>
+        <v>762875.9985773698</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>842152.2760938915</v>
+        <v>842152.2760938917</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>842152.2760938914</v>
+        <v>842152.2760938915</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>842152.2760938914</v>
+        <v>842152.2760938915</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>842152.2760938915</v>
+        <v>842152.2760938914</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>842152.2760938916</v>
+        <v>842152.2760938915</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>842152.2760938917</v>
+        <v>842152.2760938915</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>842152.2760938916</v>
+        <v>842152.2760938915</v>
       </c>
     </row>
   </sheetData>
@@ -26311,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>321270.212019024</v>
+        <v>321270.2120190239</v>
       </c>
       <c r="C2" t="n">
-        <v>321270.212019024</v>
+        <v>321270.2120190239</v>
       </c>
       <c r="D2" t="n">
-        <v>321270.212019024</v>
+        <v>321270.2120190238</v>
       </c>
       <c r="E2" t="n">
+        <v>358046.9539194665</v>
+      </c>
+      <c r="F2" t="n">
+        <v>358046.9539194665</v>
+      </c>
+      <c r="G2" t="n">
+        <v>358046.9539194666</v>
+      </c>
+      <c r="H2" t="n">
+        <v>358046.9539194665</v>
+      </c>
+      <c r="I2" t="n">
         <v>358046.9539194667</v>
       </c>
-      <c r="F2" t="n">
-        <v>358046.9539194666</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
+        <v>358046.9539194668</v>
+      </c>
+      <c r="K2" t="n">
         <v>358046.9539194667</v>
       </c>
-      <c r="H2" t="n">
-        <v>358046.9539194667</v>
-      </c>
-      <c r="I2" t="n">
-        <v>358046.9539194666</v>
-      </c>
-      <c r="J2" t="n">
-        <v>358046.9539194666</v>
-      </c>
-      <c r="K2" t="n">
-        <v>358046.9539194666</v>
-      </c>
       <c r="L2" t="n">
-        <v>358046.9539194666</v>
+        <v>358046.9539194668</v>
       </c>
       <c r="M2" t="n">
         <v>358046.9539194666</v>
@@ -26350,7 +26352,7 @@
         <v>358046.9539194666</v>
       </c>
       <c r="O2" t="n">
-        <v>358046.9539194666</v>
+        <v>358046.9539194667</v>
       </c>
       <c r="P2" t="n">
         <v>358046.9539194666</v>
@@ -26369,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.920889983215602e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171905</v>
+        <v>182072.9798171901</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.781995812663809e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341488</v>
+        <v>47552.26579341471</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.094354047381785e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,19 +26420,19 @@
         <v>13767.3191301128</v>
       </c>
       <c r="C4" t="n">
-        <v>13767.31913011278</v>
+        <v>13767.3191301128</v>
       </c>
       <c r="D4" t="n">
-        <v>13767.31913011279</v>
+        <v>13767.3191301128</v>
       </c>
       <c r="E4" t="n">
-        <v>7330.627242042245</v>
+        <v>7330.627242042256</v>
       </c>
       <c r="F4" t="n">
         <v>7330.627242042245</v>
       </c>
       <c r="G4" t="n">
-        <v>7330.62724204226</v>
+        <v>7330.627242042234</v>
       </c>
       <c r="H4" t="n">
         <v>7330.627242042245</v>
@@ -26476,13 +26478,13 @@
         <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="H5" t="n">
         <v>74306.3405613933</v>
@@ -26494,22 +26496,22 @@
         <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="L5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="M5" t="n">
         <v>74306.34056139328</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>74306.34056139328</v>
       </c>
-      <c r="M5" t="n">
-        <v>74306.3405613933</v>
-      </c>
-      <c r="N5" t="n">
-        <v>74306.3405613933</v>
-      </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
     </row>
     <row r="6">
@@ -26522,37 +26524,37 @@
         <v>-900186.6631268529</v>
       </c>
       <c r="C6" t="n">
-        <v>214565.1204490665</v>
+        <v>214565.1204490664</v>
       </c>
       <c r="D6" t="n">
-        <v>214565.1204490665</v>
+        <v>214565.120449066</v>
       </c>
       <c r="E6" t="n">
-        <v>94337.00629884063</v>
+        <v>94337.00629884083</v>
       </c>
       <c r="F6" t="n">
         <v>276409.9861160311</v>
       </c>
       <c r="G6" t="n">
-        <v>276409.9861160313</v>
+        <v>276409.9861160307</v>
       </c>
       <c r="H6" t="n">
+        <v>276409.9861160311</v>
+      </c>
+      <c r="I6" t="n">
         <v>276409.9861160312</v>
       </c>
-      <c r="I6" t="n">
-        <v>276409.9861160311</v>
-      </c>
       <c r="J6" t="n">
-        <v>108804.8083060486</v>
+        <v>108804.8083060488</v>
       </c>
       <c r="K6" t="n">
-        <v>276409.9861160311</v>
+        <v>276409.9861160312</v>
       </c>
       <c r="L6" t="n">
-        <v>276409.9861160311</v>
+        <v>276409.9861160312</v>
       </c>
       <c r="M6" t="n">
-        <v>228857.7203226162</v>
+        <v>228857.7203226163</v>
       </c>
       <c r="N6" t="n">
         <v>276409.9861160311</v>
@@ -26738,10 +26740,10 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26750,7 +26752,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022929</v>
@@ -26814,22 +26816,22 @@
         <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="L4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="M4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="M4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="N4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
     </row>
   </sheetData>
@@ -26963,16 +26965,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757586</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022533</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022532</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022533</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31276,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31519,28 +31521,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31555,7 +31557,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,7 +31594,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
@@ -31604,10 +31606,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040589</v>
@@ -31616,7 +31618,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378626</v>
@@ -31628,10 +31630,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31677,19 +31679,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31704,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33044,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33518,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33755,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33916,7 +33918,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563574</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
         <v>99.83230779806951</v>
@@ -33977,7 +33979,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233475</v>
@@ -34366,7 +34368,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953992</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
         <v>557.281137600381</v>
@@ -34778,13 +34780,13 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>538.1269048795938</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>528.9386420741744</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215495</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>591.2668520422174</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,28 +35175,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313203</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
-        <v>640.584832100039</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
         <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>591.2668520422171</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
@@ -35337,7 +35339,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36692,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -37078,7 +37080,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O32" t="n">
         <v>508.0530008882191</v>
@@ -37166,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37403,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,7 +37627,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013292</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687129</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>
